--- a/data/data-wrangling-intermediate/04.2b_edited-species-seeded1_SpeciesSeeded-in-mix-assigned.xlsx
+++ b/data/data-wrangling-intermediate/04.2b_edited-species-seeded1_SpeciesSeeded-in-mix-assigned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:40009_{4E2DAE92-AEF9-46BE-997C-3D03E1D04585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E5E1FC2-6505-4977-8569-1043D36EF31B}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:40009_{4E2DAE92-AEF9-46BE-997C-3D03E1D04585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70FEAA75-BEEA-4F2C-B6CD-4A1FD9DB0E6A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="245">
   <si>
     <t>Region</t>
   </si>
@@ -475,30 +475,12 @@
     <t>Medium BOCU mostly rooted outside of the SW side of the plot butr partially in with some overhang</t>
   </si>
   <si>
-    <t>1 Possible PLJA (1 out of 3 on certainty) on south border as well as some BOCUs (might be BOER but probably BOCU or other BOsp.) Mostly grazed</t>
-  </si>
-  <si>
-    <t>BOCU/BOER4.SRER</t>
-  </si>
-  <si>
-    <t>BOCUs up to this point could also possibly be slender grama BORE or purple BORA</t>
-  </si>
-  <si>
-    <t>BOCU/BORE/BORA.SRER</t>
-  </si>
-  <si>
-    <t>BOsp. a lot of possibly BOCU but could also be BORE or BORA</t>
-  </si>
-  <si>
     <t>Extra large BOER in S half and medium sized one next to NE plot  corner that partially hangs in and at least 2 small ones within the plot as well</t>
   </si>
   <si>
     <t>HEMU</t>
   </si>
   <si>
-    <t>PLJAspp.SRER</t>
-  </si>
-  <si>
     <t>A couple small SECOs mostly near conmods and possiblya young POSE near SE conmod, Also decent size patch (~1% cover) of SECO just near/outside N edge</t>
   </si>
   <si>
@@ -643,24 +625,12 @@
     <t>Bouteloua gracilis</t>
   </si>
   <si>
-    <t>BOCUs, or might be BOER4, SRER</t>
-  </si>
-  <si>
-    <t>Bouteloua curtipendula/repens/radicosa (spp.), SRER</t>
-  </si>
-  <si>
-    <t>Possibly Pleuraphis jamesii, SRER</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>ATCA</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>No new growth or green vegetation on SECO in the northwest pit but still there, there's a BAMU in the southwest pit as well, possibly ACHY in the south half of the plot, multiple medium to large sized ARPUs mostly in and/or near pits but not all</t>
   </si>
   <si>
@@ -779,6 +749,12 @@
   </si>
   <si>
     <t>There's a possible SPCR along the north edge and southwest near the center however if neither are SPCRs than seeded species cover would be 0%</t>
+  </si>
+  <si>
+    <t>ENFA</t>
+  </si>
+  <si>
+    <t>Encelia farinosa</t>
   </si>
 </sst>
 </file>
@@ -921,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,12 +1089,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1280,11 +1250,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1544,9 +1513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1584,7 +1553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1690,7 +1659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1832,7 +1801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1840,11 +1809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G283"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1897,10 +1866,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1920,10 +1889,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1943,10 +1912,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1966,10 +1935,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1989,10 +1958,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2012,10 +1981,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2035,10 +2004,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2058,10 +2027,10 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2081,10 +2050,10 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2104,10 +2073,10 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2127,10 +2096,10 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2150,10 +2119,10 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2173,10 +2142,10 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2196,10 +2165,10 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2219,10 +2188,10 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2242,10 +2211,10 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2265,10 +2234,10 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2288,10 +2257,10 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2311,10 +2280,10 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2334,10 +2303,10 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2357,10 +2326,10 @@
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2380,10 +2349,10 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2403,10 +2372,10 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2420,16 +2389,16 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2440,19 +2409,19 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2472,10 +2441,10 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2495,10 +2464,10 @@
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2518,10 +2487,10 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2541,10 +2510,10 @@
         <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2564,10 +2533,10 @@
         <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2587,10 +2556,10 @@
         <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2610,10 +2579,10 @@
         <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2633,10 +2602,10 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2656,10 +2625,10 @@
         <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2679,10 +2648,10 @@
         <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2702,10 +2671,10 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2725,10 +2694,10 @@
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2748,10 +2717,10 @@
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2771,10 +2740,10 @@
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2794,10 +2763,10 @@
         <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2817,10 +2786,10 @@
         <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2840,10 +2809,10 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2863,10 +2832,10 @@
         <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2886,10 +2855,10 @@
         <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2909,10 +2878,10 @@
         <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2932,10 +2901,10 @@
         <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2955,10 +2924,10 @@
         <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2978,10 +2947,10 @@
         <v>54</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -3001,10 +2970,10 @@
         <v>54</v>
       </c>
       <c r="F50" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3024,10 +2993,10 @@
         <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -3047,10 +3016,10 @@
         <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -3070,10 +3039,10 @@
         <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -3093,10 +3062,10 @@
         <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3116,10 +3085,10 @@
         <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -3139,10 +3108,10 @@
         <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G56" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -3162,10 +3131,10 @@
         <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -3185,10 +3154,10 @@
         <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3208,10 +3177,10 @@
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -3231,10 +3200,10 @@
         <v>54</v>
       </c>
       <c r="F60" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G60" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3254,10 +3223,10 @@
         <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -3277,10 +3246,10 @@
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -3300,10 +3269,10 @@
         <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -3323,10 +3292,10 @@
         <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -3346,10 +3315,10 @@
         <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3369,10 +3338,10 @@
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G66" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -3392,10 +3361,10 @@
         <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3415,10 +3384,10 @@
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3438,10 +3407,10 @@
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>200</v>
-      </c>
-      <c r="G69" t="s">
-        <v>212</v>
+        <v>194</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -3461,10 +3430,10 @@
         <v>72</v>
       </c>
       <c r="F70" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3484,10 +3453,10 @@
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3507,10 +3476,10 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -3521,19 +3490,19 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="F73" t="s">
-        <v>203</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>167</v>
+        <v>244</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3544,19 +3513,19 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3564,22 +3533,22 @@
         <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
         <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3593,16 +3562,16 @@
         <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>201</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3613,88 +3582,88 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="F77" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>194</v>
-      </c>
-      <c r="G78" t="s">
-        <v>167</v>
+        <v>193</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E79" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>194</v>
-      </c>
-      <c r="G79" t="s">
-        <v>167</v>
+        <v>195</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>194</v>
-      </c>
-      <c r="G80" t="s">
-        <v>167</v>
+        <v>183</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3708,16 +3677,16 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E81" t="s">
         <v>56</v>
       </c>
       <c r="F81" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G81" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3731,16 +3700,16 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="E82" t="s">
         <v>56</v>
       </c>
       <c r="F82" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G82" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3754,16 +3723,16 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
         <v>56</v>
       </c>
       <c r="F83" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G83" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3777,16 +3746,16 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F84" t="s">
-        <v>204</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
+      </c>
+      <c r="G84" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3800,16 +3769,16 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F85" t="s">
-        <v>204</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
+      </c>
+      <c r="G85" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3823,16 +3792,16 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="E86" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F86" t="s">
-        <v>204</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
+      </c>
+      <c r="G86" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3846,16 +3815,16 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E87" t="s">
         <v>83</v>
       </c>
       <c r="F87" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3869,16 +3838,16 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E88" t="s">
         <v>83</v>
       </c>
       <c r="F88" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3892,16 +3861,16 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E89" t="s">
         <v>83</v>
       </c>
       <c r="F89" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3915,16 +3884,16 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E90" t="s">
         <v>83</v>
       </c>
       <c r="F90" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3938,16 +3907,16 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E91" t="s">
         <v>83</v>
       </c>
       <c r="F91" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3961,16 +3930,16 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
         <v>83</v>
       </c>
       <c r="F92" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3984,16 +3953,16 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E93" t="s">
         <v>83</v>
       </c>
       <c r="F93" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4007,16 +3976,16 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E94" t="s">
         <v>83</v>
       </c>
       <c r="F94" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -4030,16 +3999,16 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E95" t="s">
         <v>83</v>
       </c>
       <c r="F95" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -4053,16 +4022,16 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E96" t="s">
         <v>83</v>
       </c>
       <c r="F96" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4076,16 +4045,16 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E97" t="s">
         <v>83</v>
       </c>
       <c r="F97" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -4099,16 +4068,16 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E98" t="s">
         <v>83</v>
       </c>
       <c r="F98" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -4122,16 +4091,16 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E99" t="s">
         <v>83</v>
       </c>
       <c r="F99" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -4145,16 +4114,16 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E100" t="s">
         <v>83</v>
       </c>
       <c r="F100" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -4168,16 +4137,16 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E101" t="s">
         <v>83</v>
       </c>
       <c r="F101" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -4191,16 +4160,16 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E102" t="s">
         <v>83</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -4214,16 +4183,16 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E103" t="s">
         <v>83</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4237,16 +4206,16 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E104" t="s">
         <v>83</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -4260,16 +4229,16 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E105" t="s">
         <v>83</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -4283,16 +4252,16 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E106" t="s">
         <v>83</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -4306,16 +4275,16 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E107" t="s">
         <v>83</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -4329,16 +4298,16 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E108" t="s">
         <v>83</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -4352,16 +4321,16 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E109" t="s">
         <v>83</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -4375,16 +4344,16 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E110" t="s">
         <v>83</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -4398,16 +4367,16 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E111" t="s">
         <v>83</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -4421,16 +4390,16 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E112" t="s">
         <v>83</v>
       </c>
       <c r="F112" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -4444,16 +4413,16 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E113" t="s">
         <v>83</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -4467,16 +4436,16 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E114" t="s">
         <v>83</v>
       </c>
       <c r="F114" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -4490,16 +4459,16 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E115" t="s">
         <v>83</v>
       </c>
       <c r="F115" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -4513,16 +4482,16 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="E116" t="s">
         <v>83</v>
       </c>
       <c r="F116" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -4536,16 +4505,16 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="E117" t="s">
         <v>83</v>
       </c>
       <c r="F117" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -4559,16 +4528,16 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="E118" t="s">
         <v>83</v>
       </c>
       <c r="F118" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -4582,16 +4551,16 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E119" t="s">
         <v>83</v>
       </c>
       <c r="F119" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -4605,16 +4574,16 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E120" t="s">
         <v>83</v>
       </c>
       <c r="F120" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4628,16 +4597,16 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E121" t="s">
         <v>83</v>
       </c>
       <c r="F121" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4651,16 +4620,16 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E122" t="s">
         <v>83</v>
       </c>
       <c r="F122" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4674,16 +4643,16 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E123" t="s">
         <v>83</v>
       </c>
       <c r="F123" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -4697,16 +4666,16 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E124" t="s">
         <v>83</v>
       </c>
       <c r="F124" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -4720,16 +4689,16 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E125" t="s">
         <v>83</v>
       </c>
       <c r="F125" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -4743,16 +4712,16 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="E126" t="s">
         <v>83</v>
       </c>
       <c r="F126" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -4766,16 +4735,16 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E127" t="s">
         <v>83</v>
       </c>
       <c r="F127" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -4789,16 +4758,16 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E128" t="s">
         <v>83</v>
       </c>
       <c r="F128" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -4812,16 +4781,16 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="E129" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F129" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -4835,16 +4804,16 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="E130" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F130" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -4858,16 +4827,16 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F131" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -4881,16 +4850,16 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E132" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F132" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -4904,16 +4873,16 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E133" t="s">
         <v>19</v>
       </c>
       <c r="F133" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -4927,16 +4896,16 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E134" t="s">
         <v>19</v>
       </c>
       <c r="F134" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -4950,16 +4919,16 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
       </c>
       <c r="F135" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -4973,16 +4942,16 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E136" t="s">
         <v>19</v>
       </c>
       <c r="F136" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -4996,16 +4965,16 @@
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
       </c>
       <c r="F137" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -5019,16 +4988,16 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
       </c>
       <c r="F138" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5042,16 +5011,16 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
       </c>
       <c r="F139" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -5065,16 +5034,16 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
       </c>
       <c r="F140" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -5088,16 +5057,16 @@
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="E141" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -5111,16 +5080,16 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="E142" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -5134,16 +5103,16 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="E143" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -5157,16 +5126,16 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E144" t="s">
         <v>111</v>
       </c>
       <c r="F144" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5180,16 +5149,16 @@
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E145" t="s">
         <v>111</v>
       </c>
       <c r="F145" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -5203,16 +5172,16 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E146" t="s">
         <v>111</v>
       </c>
       <c r="F146" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -5226,16 +5195,16 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E147" t="s">
         <v>111</v>
       </c>
       <c r="F147" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -5249,16 +5218,16 @@
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E148" t="s">
         <v>111</v>
       </c>
       <c r="F148" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -5272,16 +5241,16 @@
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E149" t="s">
         <v>111</v>
       </c>
       <c r="F149" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5295,16 +5264,16 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E150" t="s">
         <v>111</v>
       </c>
       <c r="F150" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5318,16 +5287,16 @@
         <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="E151" t="s">
         <v>111</v>
       </c>
       <c r="F151" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5341,16 +5310,16 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="E152" t="s">
         <v>111</v>
       </c>
       <c r="F152" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5364,16 +5333,16 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="E153" t="s">
         <v>111</v>
       </c>
       <c r="F153" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -5387,16 +5356,16 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E154" t="s">
         <v>111</v>
       </c>
       <c r="F154" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -5410,16 +5379,16 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E155" t="s">
         <v>111</v>
       </c>
       <c r="F155" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -5433,16 +5402,16 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E156" t="s">
         <v>111</v>
       </c>
       <c r="F156" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -5453,19 +5422,19 @@
         <v>77</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="E157" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="F157" t="s">
-        <v>169</v>
-      </c>
-      <c r="G157" t="s">
-        <v>167</v>
+        <v>199</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -5476,19 +5445,19 @@
         <v>77</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="F158" t="s">
-        <v>169</v>
-      </c>
-      <c r="G158" t="s">
-        <v>167</v>
+        <v>199</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -5499,19 +5468,19 @@
         <v>77</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="E159" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F159" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5525,16 +5494,16 @@
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E160" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>206</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>210</v>
+        <v>163</v>
+      </c>
+      <c r="G160" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5548,16 +5517,16 @@
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E161" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>206</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>210</v>
+        <v>163</v>
+      </c>
+      <c r="G161" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5571,16 +5540,16 @@
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E162" t="s">
         <v>115</v>
       </c>
       <c r="F162" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -5594,16 +5563,16 @@
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E163" t="s">
         <v>115</v>
       </c>
       <c r="F163" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -5617,16 +5586,16 @@
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E164" t="s">
         <v>115</v>
       </c>
       <c r="F164" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -5640,16 +5609,16 @@
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="E165" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="F165" t="s">
-        <v>195</v>
-      </c>
-      <c r="G165" t="s">
-        <v>167</v>
+        <v>200</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -5663,16 +5632,16 @@
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E166" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F166" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -5686,16 +5655,16 @@
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F167" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -5709,16 +5678,16 @@
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="E168" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F168" t="s">
-        <v>185</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>210</v>
+        <v>189</v>
+      </c>
+      <c r="G168" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5732,16 +5701,16 @@
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="E169" t="s">
         <v>44</v>
       </c>
       <c r="F169" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -5755,16 +5724,16 @@
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="E170" t="s">
         <v>44</v>
       </c>
       <c r="F170" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5778,16 +5747,16 @@
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E171" t="s">
         <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5801,16 +5770,16 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E172" t="s">
         <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5824,16 +5793,16 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F173" t="s">
-        <v>186</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5844,19 +5813,19 @@
         <v>77</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="E174" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>192</v>
-      </c>
-      <c r="G174" t="s">
-        <v>167</v>
+        <v>179</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5867,19 +5836,19 @@
         <v>77</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="E175" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F175" t="s">
-        <v>192</v>
-      </c>
-      <c r="G175" t="s">
-        <v>167</v>
+        <v>179</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5890,19 +5859,19 @@
         <v>77</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E176" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
-        <v>192</v>
-      </c>
-      <c r="G176" t="s">
-        <v>167</v>
+        <v>180</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5916,16 +5885,16 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="E177" t="s">
         <v>53</v>
       </c>
       <c r="F177" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G177" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5936,19 +5905,19 @@
         <v>77</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E178" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F178" t="s">
-        <v>187</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
+      </c>
+      <c r="G178" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5959,19 +5928,19 @@
         <v>77</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E179" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F179" t="s">
-        <v>187</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
+      </c>
+      <c r="G179" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5982,19 +5951,19 @@
         <v>77</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F180" t="s">
-        <v>187</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
+      </c>
+      <c r="G180" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -6005,19 +5974,19 @@
         <v>77</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E181" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -6028,19 +5997,19 @@
         <v>77</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E182" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -6051,19 +6020,19 @@
         <v>77</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="E183" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F183" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -6077,16 +6046,16 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E184" t="s">
         <v>48</v>
       </c>
       <c r="F184" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -6097,19 +6066,19 @@
         <v>77</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E185" t="s">
         <v>48</v>
       </c>
       <c r="F185" t="s">
-        <v>188</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -6123,16 +6092,16 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E186" t="s">
         <v>48</v>
       </c>
       <c r="F186" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -6146,16 +6115,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E187" t="s">
         <v>48</v>
       </c>
       <c r="F187" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -6166,19 +6135,19 @@
         <v>77</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="E188" t="s">
         <v>48</v>
       </c>
       <c r="F188" t="s">
-        <v>188</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>210</v>
+        <v>182</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -6192,16 +6161,16 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E189" t="s">
         <v>48</v>
       </c>
       <c r="F189" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -6215,16 +6184,16 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E190" t="s">
         <v>48</v>
       </c>
       <c r="F190" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -6238,16 +6207,16 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E191" t="s">
         <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -6261,16 +6230,16 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E192" t="s">
         <v>48</v>
       </c>
       <c r="F192" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -6284,16 +6253,16 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E193" t="s">
         <v>48</v>
       </c>
       <c r="F193" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -6307,16 +6276,16 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="E194" t="s">
         <v>48</v>
       </c>
       <c r="F194" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -6330,16 +6299,16 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="E195" t="s">
         <v>48</v>
       </c>
       <c r="F195" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -6350,19 +6319,19 @@
         <v>77</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F196" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -6373,19 +6342,19 @@
         <v>77</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="E197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F197" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -6396,19 +6365,19 @@
         <v>77</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="E198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F198" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -6422,16 +6391,16 @@
         <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E199" t="s">
         <v>49</v>
       </c>
       <c r="F199" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -6445,16 +6414,16 @@
         <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="E200" t="s">
         <v>49</v>
       </c>
       <c r="F200" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -6468,16 +6437,16 @@
         <v>8</v>
       </c>
       <c r="D201" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="E201" t="s">
         <v>49</v>
       </c>
       <c r="F201" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -6491,16 +6460,16 @@
         <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="E202" t="s">
         <v>49</v>
       </c>
       <c r="F202" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -6514,16 +6483,16 @@
         <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E203" t="s">
         <v>49</v>
       </c>
       <c r="F203" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -6537,16 +6506,16 @@
         <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E204" t="s">
         <v>49</v>
       </c>
       <c r="F204" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -6560,16 +6529,16 @@
         <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E205" t="s">
         <v>49</v>
       </c>
       <c r="F205" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -6577,22 +6546,22 @@
         <v>76</v>
       </c>
       <c r="B206" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="E206" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F206" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -6600,22 +6569,22 @@
         <v>76</v>
       </c>
       <c r="B207" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="E207" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F207" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6623,22 +6592,22 @@
         <v>76</v>
       </c>
       <c r="B208" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E208" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F208" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6652,16 +6621,16 @@
         <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E209" t="s">
         <v>83</v>
       </c>
       <c r="F209" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6675,16 +6644,16 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E210" t="s">
         <v>83</v>
       </c>
       <c r="F210" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6698,16 +6667,16 @@
         <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="E211" t="s">
         <v>83</v>
       </c>
       <c r="F211" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6721,16 +6690,16 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E212" t="s">
         <v>83</v>
       </c>
       <c r="F212" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -6744,16 +6713,16 @@
         <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E213" t="s">
         <v>83</v>
       </c>
       <c r="F213" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -6767,16 +6736,16 @@
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E214" t="s">
         <v>83</v>
       </c>
       <c r="F214" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -6790,16 +6759,16 @@
         <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E215" t="s">
         <v>83</v>
       </c>
       <c r="F215" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -6813,16 +6782,16 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="E216" t="s">
         <v>83</v>
       </c>
       <c r="F216" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6836,16 +6805,16 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="E217" t="s">
         <v>83</v>
       </c>
       <c r="F217" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6859,16 +6828,16 @@
         <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="E218" t="s">
         <v>83</v>
       </c>
       <c r="F218" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6882,16 +6851,16 @@
         <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E219" t="s">
         <v>83</v>
       </c>
       <c r="F219" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -6905,16 +6874,16 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="E220" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F220" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -6928,16 +6897,16 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="E221" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F221" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -6951,16 +6920,16 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="E222" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F222" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6974,16 +6943,16 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E223" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F223" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6994,19 +6963,19 @@
         <v>127</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E224" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F224" t="s">
-        <v>205</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -7020,16 +6989,16 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="E225" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F225" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -7040,19 +7009,19 @@
         <v>127</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E226" t="s">
         <v>111</v>
       </c>
       <c r="F226" t="s">
-        <v>205</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -7063,19 +7032,19 @@
         <v>127</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D227" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E227" t="s">
         <v>111</v>
       </c>
       <c r="F227" t="s">
-        <v>205</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -7089,16 +7058,16 @@
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E228" t="s">
         <v>111</v>
       </c>
       <c r="F228" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -7109,19 +7078,19 @@
         <v>127</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D229" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E229" t="s">
         <v>111</v>
       </c>
       <c r="F229" t="s">
-        <v>205</v>
-      </c>
-      <c r="G229" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -7135,16 +7104,16 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E230" t="s">
         <v>111</v>
       </c>
       <c r="F230" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -7158,16 +7127,16 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E231" t="s">
         <v>111</v>
       </c>
       <c r="F231" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -7181,16 +7150,16 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E232" t="s">
         <v>111</v>
       </c>
       <c r="F232" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -7204,16 +7173,16 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E233" t="s">
         <v>111</v>
       </c>
       <c r="F233" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -7227,16 +7196,16 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E234" t="s">
         <v>111</v>
       </c>
       <c r="F234" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -7250,16 +7219,16 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E235" t="s">
         <v>111</v>
       </c>
       <c r="F235" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -7273,16 +7242,16 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E236" t="s">
         <v>111</v>
       </c>
       <c r="F236" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -7296,16 +7265,16 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E237" t="s">
         <v>111</v>
       </c>
       <c r="F237" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -7319,16 +7288,16 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E238" t="s">
         <v>111</v>
       </c>
       <c r="F238" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -7342,16 +7311,16 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E239" t="s">
         <v>111</v>
       </c>
       <c r="F239" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -7365,16 +7334,16 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E240" t="s">
         <v>111</v>
       </c>
       <c r="F240" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -7388,16 +7357,16 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E241" t="s">
         <v>111</v>
       </c>
       <c r="F241" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -7411,16 +7380,16 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E242" t="s">
         <v>111</v>
       </c>
       <c r="F242" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -7434,16 +7403,16 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="E243" t="s">
         <v>111</v>
       </c>
       <c r="F243" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -7457,16 +7426,16 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="E244" t="s">
         <v>111</v>
       </c>
       <c r="F244" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7480,16 +7449,16 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="E245" t="s">
         <v>111</v>
       </c>
       <c r="F245" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -7503,16 +7472,16 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E246" t="s">
         <v>111</v>
       </c>
       <c r="F246" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7526,16 +7495,16 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E247" t="s">
         <v>111</v>
       </c>
       <c r="F247" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7549,16 +7518,16 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E248" t="s">
         <v>111</v>
       </c>
       <c r="F248" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -7572,16 +7541,16 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E249" t="s">
         <v>111</v>
       </c>
       <c r="F249" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -7595,16 +7564,16 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E250" t="s">
         <v>111</v>
       </c>
       <c r="F250" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7618,16 +7587,16 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E251" t="s">
         <v>111</v>
       </c>
       <c r="F251" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -7638,19 +7607,19 @@
         <v>127</v>
       </c>
       <c r="C252" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="E252" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="F252" t="s">
-        <v>207</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>167</v>
+        <v>199</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7661,19 +7630,19 @@
         <v>127</v>
       </c>
       <c r="C253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="E253" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="F253" t="s">
-        <v>208</v>
-      </c>
-      <c r="G253" s="3" t="s">
-        <v>167</v>
+        <v>199</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7687,16 +7656,16 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="E254" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="F254" t="s">
-        <v>208</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>167</v>
+        <v>199</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7710,16 +7679,16 @@
         <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E255" t="s">
         <v>12</v>
       </c>
       <c r="F255" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G255" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7733,16 +7702,16 @@
         <v>8</v>
       </c>
       <c r="D256" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E256" t="s">
         <v>34</v>
       </c>
       <c r="F256" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7756,16 +7725,16 @@
         <v>8</v>
       </c>
       <c r="D257" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E257" t="s">
         <v>44</v>
       </c>
       <c r="F257" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7779,16 +7748,16 @@
         <v>8</v>
       </c>
       <c r="D258" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E258" t="s">
         <v>44</v>
       </c>
       <c r="F258" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7802,16 +7771,16 @@
         <v>8</v>
       </c>
       <c r="D259" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E259" t="s">
         <v>45</v>
       </c>
       <c r="F259" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7825,16 +7794,16 @@
         <v>8</v>
       </c>
       <c r="D260" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E260" t="s">
         <v>45</v>
       </c>
       <c r="F260" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7845,19 +7814,19 @@
         <v>127</v>
       </c>
       <c r="C261" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E261" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="F261" t="s">
-        <v>209</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7868,19 +7837,19 @@
         <v>127</v>
       </c>
       <c r="C262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D262" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E262" t="s">
         <v>46</v>
       </c>
       <c r="F262" t="s">
-        <v>187</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7894,16 +7863,16 @@
         <v>8</v>
       </c>
       <c r="D263" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="E263" t="s">
         <v>46</v>
       </c>
       <c r="F263" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7914,19 +7883,19 @@
         <v>127</v>
       </c>
       <c r="C264" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="E264" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F264" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7940,16 +7909,16 @@
         <v>9</v>
       </c>
       <c r="D265" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E265" t="s">
         <v>48</v>
       </c>
       <c r="F265" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -7963,16 +7932,16 @@
         <v>9</v>
       </c>
       <c r="D266" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E266" t="s">
         <v>48</v>
       </c>
       <c r="F266" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -7986,16 +7955,16 @@
         <v>9</v>
       </c>
       <c r="D267" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E267" t="s">
         <v>48</v>
       </c>
       <c r="F267" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -8009,16 +7978,16 @@
         <v>9</v>
       </c>
       <c r="D268" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="E268" t="s">
         <v>48</v>
       </c>
       <c r="F268" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -8032,16 +8001,16 @@
         <v>9</v>
       </c>
       <c r="D269" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E269" t="s">
         <v>48</v>
       </c>
       <c r="F269" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -8052,19 +8021,19 @@
         <v>127</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D270" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="E270" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F270" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -8078,16 +8047,16 @@
         <v>8</v>
       </c>
       <c r="D271" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="E271" t="s">
         <v>49</v>
       </c>
       <c r="F271" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -8101,16 +8070,16 @@
         <v>8</v>
       </c>
       <c r="D272" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E272" t="s">
         <v>49</v>
       </c>
       <c r="F272" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -8124,73 +8093,73 @@
         <v>8</v>
       </c>
       <c r="D273" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E273" t="s">
         <v>49</v>
       </c>
       <c r="F273" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="B274" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C274" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D274" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="E274" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F274" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B275" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C275" t="s">
         <v>23</v>
       </c>
       <c r="D275" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="E275" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F275" t="s">
-        <v>180</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B276" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C276" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D276" t="s">
         <v>52</v>
@@ -8199,113 +8168,113 @@
         <v>52</v>
       </c>
       <c r="F276" t="s">
-        <v>191</v>
-      </c>
-      <c r="G276" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
+        <v>155</v>
+      </c>
+      <c r="B277" t="s">
+        <v>158</v>
+      </c>
+      <c r="C277" t="s">
+        <v>23</v>
+      </c>
+      <c r="D277" t="s">
+        <v>54</v>
+      </c>
+      <c r="E277" t="s">
+        <v>54</v>
+      </c>
+      <c r="F277" t="s">
+        <v>187</v>
+      </c>
+      <c r="G277" t="s">
         <v>161</v>
-      </c>
-      <c r="B277" t="s">
-        <v>164</v>
-      </c>
-      <c r="C277" t="s">
-        <v>18</v>
-      </c>
-      <c r="D277" t="s">
-        <v>52</v>
-      </c>
-      <c r="E277" t="s">
-        <v>52</v>
-      </c>
-      <c r="F277" t="s">
-        <v>191</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>155</v>
+      </c>
+      <c r="B278" t="s">
+        <v>158</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>39</v>
+      </c>
+      <c r="E278" t="s">
+        <v>39</v>
+      </c>
+      <c r="F278" t="s">
+        <v>176</v>
+      </c>
+      <c r="G278" t="s">
         <v>161</v>
-      </c>
-      <c r="B278" t="s">
-        <v>164</v>
-      </c>
-      <c r="C278" t="s">
-        <v>23</v>
-      </c>
-      <c r="D278" t="s">
-        <v>54</v>
-      </c>
-      <c r="E278" t="s">
-        <v>54</v>
-      </c>
-      <c r="F278" t="s">
-        <v>193</v>
-      </c>
-      <c r="G278" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B279" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C279" t="s">
         <v>10</v>
       </c>
       <c r="D279" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E279" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F279" t="s">
-        <v>182</v>
-      </c>
-      <c r="G279" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
+        <v>155</v>
+      </c>
+      <c r="B280" t="s">
+        <v>159</v>
+      </c>
+      <c r="C280" t="s">
+        <v>23</v>
+      </c>
+      <c r="D280" t="s">
+        <v>33</v>
+      </c>
+      <c r="E280" t="s">
+        <v>33</v>
+      </c>
+      <c r="F280" t="s">
+        <v>172</v>
+      </c>
+      <c r="G280" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B280" t="s">
-        <v>165</v>
-      </c>
-      <c r="C280" t="s">
-        <v>10</v>
-      </c>
-      <c r="D280" t="s">
-        <v>24</v>
-      </c>
-      <c r="E280" t="s">
-        <v>24</v>
-      </c>
-      <c r="F280" t="s">
-        <v>174</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B281" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C281" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D281" t="s">
         <v>33</v>
@@ -8314,56 +8283,33 @@
         <v>33</v>
       </c>
       <c r="F281" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B282" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C282" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D282" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="E282" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F282" t="s">
-        <v>178</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>161</v>
-      </c>
-      <c r="B283" t="s">
-        <v>165</v>
-      </c>
-      <c r="C283" t="s">
-        <v>21</v>
-      </c>
-      <c r="D283" t="s">
-        <v>166</v>
-      </c>
-      <c r="E283" t="s">
-        <v>39</v>
-      </c>
-      <c r="F283" t="s">
-        <v>182</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>210</v>
+        <v>176</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/data-wrangling-intermediate/04.2b_edited-species-seeded1_SpeciesSeeded-in-mix-assigned.xlsx
+++ b/data/data-wrangling-intermediate/04.2b_edited-species-seeded1_SpeciesSeeded-in-mix-assigned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:40009_{4E2DAE92-AEF9-46BE-997C-3D03E1D04585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70FEAA75-BEEA-4F2C-B6CD-4A1FD9DB0E6A}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:40009_{4E2DAE92-AEF9-46BE-997C-3D03E1D04585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B8A31D8-366A-4558-9B84-6FEB686DDEC6}"/>
   <bookViews>
-    <workbookView xWindow="41295" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="247">
   <si>
     <t>Region</t>
   </si>
@@ -755,6 +755,12 @@
   </si>
   <si>
     <t>Encelia farinosa</t>
+  </si>
+  <si>
+    <t>AMDE4</t>
+  </si>
+  <si>
+    <t>Ambrosia deltoidea</t>
   </si>
 </sst>
 </file>
@@ -1809,11 +1815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26:D26"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3398,16 +3404,16 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="F69" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>161</v>
@@ -3418,22 +3424,22 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>196</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>161</v>
+        <v>244</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3441,19 +3447,19 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>161</v>
@@ -3464,22 +3470,22 @@
         <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -3487,19 +3493,19 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="F73" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>201</v>
@@ -3510,22 +3516,22 @@
         <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="E74" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="F74" t="s">
-        <v>197</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>161</v>
+        <v>246</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3533,19 +3539,19 @@
         <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F75" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>161</v>
@@ -3556,19 +3562,19 @@
         <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>161</v>
@@ -3579,22 +3585,22 @@
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s">
-        <v>244</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3602,19 +3608,19 @@
         <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>201</v>
@@ -3625,19 +3631,19 @@
         <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
         <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>201</v>
@@ -3648,180 +3654,180 @@
         <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>183</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>201</v>
+        <v>166</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>188</v>
-      </c>
-      <c r="G81" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="F82" t="s">
-        <v>188</v>
-      </c>
-      <c r="G82" t="s">
-        <v>161</v>
+        <v>244</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G83" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>188</v>
-      </c>
-      <c r="G84" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F85" t="s">
-        <v>188</v>
-      </c>
-      <c r="G85" t="s">
+        <v>195</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="E86" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F86" t="s">
-        <v>188</v>
-      </c>
-      <c r="G86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="E87" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="F87" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>201</v>
@@ -3829,22 +3835,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>201</v>
@@ -3852,22 +3858,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F89" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>201</v>
@@ -3875,22 +3881,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>201</v>
@@ -3907,16 +3913,16 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E91" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F91" t="s">
-        <v>198</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="G91" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3930,16 +3936,16 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E92" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F92" t="s">
-        <v>198</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="G92" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3953,16 +3959,16 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E93" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F93" t="s">
-        <v>198</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="G93" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3976,16 +3982,16 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E94" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F94" t="s">
-        <v>198</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="G94" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3999,16 +4005,16 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F95" t="s">
-        <v>198</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="G95" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -4022,16 +4028,16 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F96" t="s">
-        <v>198</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="G96" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -4045,7 +4051,7 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E97" t="s">
         <v>83</v>
@@ -4068,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E98" t="s">
         <v>83</v>
@@ -4091,7 +4097,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E99" t="s">
         <v>83</v>
@@ -4114,7 +4120,7 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E100" t="s">
         <v>83</v>
@@ -4137,7 +4143,7 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E101" t="s">
         <v>83</v>
@@ -4160,7 +4166,7 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E102" t="s">
         <v>83</v>
@@ -4183,7 +4189,7 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E103" t="s">
         <v>83</v>
@@ -4206,7 +4212,7 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E104" t="s">
         <v>83</v>
@@ -4229,7 +4235,7 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E105" t="s">
         <v>83</v>
@@ -4252,7 +4258,7 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E106" t="s">
         <v>83</v>
@@ -4275,7 +4281,7 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E107" t="s">
         <v>83</v>
@@ -4298,7 +4304,7 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E108" t="s">
         <v>83</v>
@@ -4321,7 +4327,7 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E109" t="s">
         <v>83</v>
@@ -4344,7 +4350,7 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E110" t="s">
         <v>83</v>
@@ -4367,7 +4373,7 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E111" t="s">
         <v>83</v>
@@ -4390,7 +4396,7 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E112" t="s">
         <v>83</v>
@@ -4413,7 +4419,7 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E113" t="s">
         <v>83</v>
@@ -4436,7 +4442,7 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E114" t="s">
         <v>83</v>
@@ -4459,7 +4465,7 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E115" t="s">
         <v>83</v>
@@ -4482,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E116" t="s">
         <v>83</v>
@@ -4505,7 +4511,7 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E117" t="s">
         <v>83</v>
@@ -4528,7 +4534,7 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E118" t="s">
         <v>83</v>
@@ -4551,7 +4557,7 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="E119" t="s">
         <v>83</v>
@@ -4574,7 +4580,7 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="E120" t="s">
         <v>83</v>
@@ -4597,7 +4603,7 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="E121" t="s">
         <v>83</v>
@@ -4620,7 +4626,7 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="E122" t="s">
         <v>83</v>
@@ -4643,7 +4649,7 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="E123" t="s">
         <v>83</v>
@@ -4666,7 +4672,7 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="E124" t="s">
         <v>83</v>
@@ -4689,7 +4695,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="E125" t="s">
         <v>83</v>
@@ -4712,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="E126" t="s">
         <v>83</v>
@@ -4735,7 +4741,7 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="E127" t="s">
         <v>83</v>
@@ -4758,7 +4764,7 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="E128" t="s">
         <v>83</v>
@@ -4781,7 +4787,7 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E129" t="s">
         <v>83</v>
@@ -4804,7 +4810,7 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E130" t="s">
         <v>83</v>
@@ -4827,7 +4833,7 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E131" t="s">
         <v>83</v>
@@ -4850,13 +4856,13 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="E132" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F132" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>201</v>
@@ -4873,13 +4879,13 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F133" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>201</v>
@@ -4896,13 +4902,13 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="E134" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F134" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>201</v>
@@ -4919,13 +4925,13 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="E135" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F135" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>201</v>
@@ -4942,13 +4948,13 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F136" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>201</v>
@@ -4965,13 +4971,13 @@
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="E137" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F137" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>201</v>
@@ -4988,13 +4994,13 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="E138" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F138" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>201</v>
@@ -5011,13 +5017,13 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="E139" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F139" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>201</v>
@@ -5034,13 +5040,13 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="E140" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F140" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>201</v>
@@ -5057,13 +5063,13 @@
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E141" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F141" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>201</v>
@@ -5080,13 +5086,13 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="E142" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F142" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>201</v>
@@ -5103,7 +5109,7 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -5126,13 +5132,13 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E144" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F144" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>201</v>
@@ -5149,13 +5155,13 @@
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E145" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F145" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>201</v>
@@ -5172,13 +5178,13 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E146" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F146" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>201</v>
@@ -5195,13 +5201,13 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E147" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F147" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>201</v>
@@ -5218,13 +5224,13 @@
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E148" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F148" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>201</v>
@@ -5241,13 +5247,13 @@
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E149" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F149" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>201</v>
@@ -5264,13 +5270,13 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E150" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F150" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>201</v>
@@ -5287,13 +5293,13 @@
         <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="E151" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F151" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>201</v>
@@ -5310,13 +5316,13 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="E152" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F152" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>201</v>
@@ -5333,13 +5339,13 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="E153" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F153" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>201</v>
@@ -5356,7 +5362,7 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="E154" t="s">
         <v>111</v>
@@ -5379,7 +5385,7 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="E155" t="s">
         <v>111</v>
@@ -5402,7 +5408,7 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="E156" t="s">
         <v>111</v>
@@ -5425,7 +5431,7 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="E157" t="s">
         <v>111</v>
@@ -5448,7 +5454,7 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="E158" t="s">
         <v>111</v>
@@ -5471,7 +5477,7 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="E159" t="s">
         <v>111</v>
@@ -5491,19 +5497,19 @@
         <v>77</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="F160" t="s">
-        <v>163</v>
-      </c>
-      <c r="G160" t="s">
-        <v>161</v>
+        <v>199</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -5514,19 +5520,19 @@
         <v>77</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="F161" t="s">
-        <v>163</v>
-      </c>
-      <c r="G161" t="s">
-        <v>161</v>
+        <v>199</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -5537,16 +5543,16 @@
         <v>77</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E162" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F162" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>201</v>
@@ -5560,16 +5566,16 @@
         <v>77</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E163" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F163" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>201</v>
@@ -5583,16 +5589,16 @@
         <v>77</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="E164" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>201</v>
@@ -5606,16 +5612,16 @@
         <v>77</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="E165" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>201</v>
@@ -5629,16 +5635,16 @@
         <v>77</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="E166" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F166" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>201</v>
@@ -5652,16 +5658,16 @@
         <v>77</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E167" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>201</v>
@@ -5675,19 +5681,19 @@
         <v>77</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="E168" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
-      </c>
-      <c r="G168" t="s">
-        <v>161</v>
+        <v>199</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -5698,16 +5704,16 @@
         <v>77</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E169" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F169" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>201</v>
@@ -5724,16 +5730,16 @@
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E170" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>179</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>201</v>
+        <v>163</v>
+      </c>
+      <c r="G170" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -5747,16 +5753,16 @@
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>179</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>201</v>
+        <v>163</v>
+      </c>
+      <c r="G171" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -5770,13 +5776,13 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F172" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>201</v>
@@ -5793,13 +5799,13 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="E173" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F173" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>201</v>
@@ -5816,13 +5822,13 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F174" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>201</v>
@@ -5839,13 +5845,13 @@
         <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F175" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>201</v>
@@ -5865,13 +5871,13 @@
         <v>119</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="F176" t="s">
-        <v>180</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5882,19 +5888,19 @@
         <v>77</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E177" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="F177" t="s">
-        <v>186</v>
-      </c>
-      <c r="G177" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5905,16 +5911,16 @@
         <v>77</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E178" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F178" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G178" t="s">
         <v>161</v>
@@ -5928,19 +5934,19 @@
         <v>77</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E179" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>186</v>
-      </c>
-      <c r="G179" t="s">
-        <v>161</v>
+        <v>179</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5951,19 +5957,19 @@
         <v>77</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="E180" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F180" t="s">
-        <v>186</v>
-      </c>
-      <c r="G180" t="s">
-        <v>161</v>
+        <v>179</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -5977,13 +5983,13 @@
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F181" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>201</v>
@@ -6000,13 +6006,13 @@
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F182" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>201</v>
@@ -6023,13 +6029,13 @@
         <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E183" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>201</v>
@@ -6043,16 +6049,16 @@
         <v>77</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="E184" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>201</v>
@@ -6066,16 +6072,16 @@
         <v>77</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="E185" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>201</v>
@@ -6089,19 +6095,19 @@
         <v>77</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E186" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F186" t="s">
-        <v>182</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -6115,16 +6121,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E187" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F187" t="s">
-        <v>182</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
+      </c>
+      <c r="G187" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -6135,18 +6141,18 @@
         <v>77</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E188" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F188" t="s">
-        <v>182</v>
-      </c>
-      <c r="G188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G188" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6161,16 +6167,16 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E189" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F189" t="s">
-        <v>182</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
+      </c>
+      <c r="G189" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -6184,16 +6190,16 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F190" t="s">
-        <v>182</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
+      </c>
+      <c r="G190" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -6204,16 +6210,16 @@
         <v>77</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>201</v>
@@ -6227,16 +6233,16 @@
         <v>77</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E192" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>201</v>
@@ -6250,16 +6256,16 @@
         <v>77</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="E193" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F193" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>201</v>
@@ -6276,7 +6282,7 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E194" t="s">
         <v>48</v>
@@ -6299,7 +6305,7 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E195" t="s">
         <v>48</v>
@@ -6322,7 +6328,7 @@
         <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E196" t="s">
         <v>48</v>
@@ -6345,7 +6351,7 @@
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="E197" t="s">
         <v>48</v>
@@ -6365,10 +6371,10 @@
         <v>77</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D198" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="E198" t="s">
         <v>48</v>
@@ -6376,8 +6382,8 @@
       <c r="F198" t="s">
         <v>182</v>
       </c>
-      <c r="G198" s="2" t="s">
-        <v>201</v>
+      <c r="G198" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -6388,16 +6394,16 @@
         <v>77</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F199" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>201</v>
@@ -6411,16 +6417,16 @@
         <v>77</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F200" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>201</v>
@@ -6434,16 +6440,16 @@
         <v>77</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F201" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>201</v>
@@ -6457,16 +6463,16 @@
         <v>77</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F202" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>201</v>
@@ -6480,16 +6486,16 @@
         <v>77</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="E203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>201</v>
@@ -6503,16 +6509,16 @@
         <v>77</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="E204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F204" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>201</v>
@@ -6526,16 +6532,16 @@
         <v>77</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="E205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F205" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>201</v>
@@ -6549,16 +6555,16 @@
         <v>77</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="E206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F206" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>201</v>
@@ -6572,16 +6578,16 @@
         <v>77</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F207" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>201</v>
@@ -6595,16 +6601,16 @@
         <v>77</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>201</v>
@@ -6615,19 +6621,19 @@
         <v>76</v>
       </c>
       <c r="B209" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E209" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F209" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>201</v>
@@ -6638,19 +6644,19 @@
         <v>76</v>
       </c>
       <c r="B210" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E210" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F210" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>201</v>
@@ -6661,19 +6667,19 @@
         <v>76</v>
       </c>
       <c r="B211" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E211" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F211" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>201</v>
@@ -6684,19 +6690,19 @@
         <v>76</v>
       </c>
       <c r="B212" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E212" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F212" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>201</v>
@@ -6707,19 +6713,19 @@
         <v>76</v>
       </c>
       <c r="B213" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="E213" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F213" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>201</v>
@@ -6730,19 +6736,19 @@
         <v>76</v>
       </c>
       <c r="B214" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D214" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="E214" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F214" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>201</v>
@@ -6753,19 +6759,19 @@
         <v>76</v>
       </c>
       <c r="B215" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F215" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>201</v>
@@ -6776,19 +6782,19 @@
         <v>76</v>
       </c>
       <c r="B216" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D216" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F216" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>201</v>
@@ -6799,19 +6805,19 @@
         <v>76</v>
       </c>
       <c r="B217" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F217" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>201</v>
@@ -6822,19 +6828,19 @@
         <v>76</v>
       </c>
       <c r="B218" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="E218" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F218" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>201</v>
@@ -6851,7 +6857,7 @@
         <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="E219" t="s">
         <v>83</v>
@@ -6874,7 +6880,7 @@
         <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="E220" t="s">
         <v>83</v>
@@ -6897,7 +6903,7 @@
         <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E221" t="s">
         <v>83</v>
@@ -6920,7 +6926,7 @@
         <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E222" t="s">
         <v>83</v>
@@ -6943,13 +6949,13 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E223" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F223" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>201</v>
@@ -6966,13 +6972,13 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E224" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F224" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>201</v>
@@ -6989,13 +6995,13 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="E225" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F225" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>201</v>
@@ -7012,13 +7018,13 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E226" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F226" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>201</v>
@@ -7032,19 +7038,19 @@
         <v>127</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E227" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F227" t="s">
-        <v>199</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>161</v>
+        <v>198</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -7058,13 +7064,13 @@
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E228" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F228" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>201</v>
@@ -7078,19 +7084,19 @@
         <v>127</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="E229" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F229" t="s">
-        <v>199</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>161</v>
+        <v>198</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -7104,13 +7110,13 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="E230" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F230" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>201</v>
@@ -7127,13 +7133,13 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="E231" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F231" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>201</v>
@@ -7150,13 +7156,13 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="E232" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F232" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>201</v>
@@ -7173,13 +7179,13 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E233" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F233" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>201</v>
@@ -7196,13 +7202,13 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E234" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F234" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>201</v>
@@ -7219,13 +7225,13 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="E235" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="F235" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>201</v>
@@ -7242,7 +7248,7 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E236" t="s">
         <v>111</v>
@@ -7262,10 +7268,10 @@
         <v>127</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D237" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E237" t="s">
         <v>111</v>
@@ -7273,8 +7279,8 @@
       <c r="F237" t="s">
         <v>199</v>
       </c>
-      <c r="G237" s="2" t="s">
-        <v>201</v>
+      <c r="G237" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -7288,7 +7294,7 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E238" t="s">
         <v>111</v>
@@ -7308,10 +7314,10 @@
         <v>127</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D239" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E239" t="s">
         <v>111</v>
@@ -7319,8 +7325,8 @@
       <c r="F239" t="s">
         <v>199</v>
       </c>
-      <c r="G239" s="2" t="s">
-        <v>201</v>
+      <c r="G239" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -7334,7 +7340,7 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E240" t="s">
         <v>111</v>
@@ -7357,7 +7363,7 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E241" t="s">
         <v>111</v>
@@ -7380,7 +7386,7 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E242" t="s">
         <v>111</v>
@@ -7403,7 +7409,7 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E243" t="s">
         <v>111</v>
@@ -7426,7 +7432,7 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E244" t="s">
         <v>111</v>
@@ -7449,7 +7455,7 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E245" t="s">
         <v>111</v>
@@ -7472,7 +7478,7 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="E246" t="s">
         <v>111</v>
@@ -7495,7 +7501,7 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="E247" t="s">
         <v>111</v>
@@ -7518,7 +7524,7 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="E248" t="s">
         <v>111</v>
@@ -7541,7 +7547,7 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E249" t="s">
         <v>111</v>
@@ -7564,7 +7570,7 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="E250" t="s">
         <v>111</v>
@@ -7587,7 +7593,7 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="E251" t="s">
         <v>111</v>
@@ -7610,7 +7616,7 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="E252" t="s">
         <v>111</v>
@@ -7633,7 +7639,7 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="E253" t="s">
         <v>111</v>
@@ -7656,7 +7662,7 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="E254" t="s">
         <v>111</v>
@@ -7676,19 +7682,19 @@
         <v>127</v>
       </c>
       <c r="C255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E255" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="F255" t="s">
-        <v>163</v>
-      </c>
-      <c r="G255" t="s">
-        <v>161</v>
+        <v>199</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7699,16 +7705,16 @@
         <v>127</v>
       </c>
       <c r="C256" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="E256" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="F256" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>201</v>
@@ -7722,16 +7728,16 @@
         <v>127</v>
       </c>
       <c r="C257" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E257" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F257" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>201</v>
@@ -7745,16 +7751,16 @@
         <v>127</v>
       </c>
       <c r="C258" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E258" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F258" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>201</v>
@@ -7768,19 +7774,19 @@
         <v>127</v>
       </c>
       <c r="C259" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E259" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F259" t="s">
-        <v>180</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>161</v>
+        <v>199</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7791,19 +7797,19 @@
         <v>127</v>
       </c>
       <c r="C260" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D260" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E260" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F260" t="s">
-        <v>180</v>
-      </c>
-      <c r="G260" s="1" t="s">
-        <v>161</v>
+        <v>199</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7817,16 +7823,16 @@
         <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="E261" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F261" t="s">
-        <v>181</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>161</v>
+        <v>199</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7837,16 +7843,16 @@
         <v>127</v>
       </c>
       <c r="C262" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D262" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="E262" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F262" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>201</v>
@@ -7860,16 +7866,16 @@
         <v>127</v>
       </c>
       <c r="C263" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E263" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F263" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>201</v>
@@ -7886,13 +7892,13 @@
         <v>9</v>
       </c>
       <c r="D264" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="E264" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F264" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>201</v>
@@ -7906,19 +7912,19 @@
         <v>127</v>
       </c>
       <c r="C265" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D265" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E265" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F265" t="s">
-        <v>182</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>201</v>
+        <v>163</v>
+      </c>
+      <c r="G265" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -7929,16 +7935,16 @@
         <v>127</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D266" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E266" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F266" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>201</v>
@@ -7952,16 +7958,16 @@
         <v>127</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D267" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="E267" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F267" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>201</v>
@@ -7975,16 +7981,16 @@
         <v>127</v>
       </c>
       <c r="C268" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D268" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E268" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F268" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>201</v>
@@ -7998,19 +8004,19 @@
         <v>127</v>
       </c>
       <c r="C269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D269" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E269" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F269" t="s">
-        <v>182</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -8024,16 +8030,16 @@
         <v>8</v>
       </c>
       <c r="D270" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="E270" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F270" t="s">
-        <v>183</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -8044,19 +8050,19 @@
         <v>127</v>
       </c>
       <c r="C271" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="E271" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F271" t="s">
-        <v>183</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -8070,13 +8076,13 @@
         <v>8</v>
       </c>
       <c r="D272" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="E272" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F272" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>201</v>
@@ -8093,13 +8099,13 @@
         <v>8</v>
       </c>
       <c r="D273" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E273" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F273" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>201</v>
@@ -8107,22 +8113,22 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B274" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C274" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E274" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F274" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>201</v>
@@ -8130,45 +8136,45 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B275" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C275" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D275" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="E275" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F275" t="s">
-        <v>185</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B276" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C276" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="E276" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F276" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>201</v>
@@ -8176,139 +8182,369 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B277" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C277" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D277" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="E277" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F277" t="s">
-        <v>187</v>
-      </c>
-      <c r="G277" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B278" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="E278" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F278" t="s">
-        <v>176</v>
-      </c>
-      <c r="G278" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B279" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C279" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D279" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="E279" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F279" t="s">
-        <v>168</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B280" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C280" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D280" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E280" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F280" t="s">
-        <v>172</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B281" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C281" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D281" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="E281" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F281" t="s">
-        <v>172</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
+        <v>76</v>
+      </c>
+      <c r="B282" t="s">
+        <v>127</v>
+      </c>
+      <c r="C282" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" t="s">
+        <v>242</v>
+      </c>
+      <c r="E282" t="s">
+        <v>49</v>
+      </c>
+      <c r="F282" t="s">
+        <v>183</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>76</v>
+      </c>
+      <c r="B283" t="s">
+        <v>127</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>239</v>
+      </c>
+      <c r="E283" t="s">
+        <v>49</v>
+      </c>
+      <c r="F283" t="s">
+        <v>183</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>155</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B284" t="s">
+        <v>156</v>
+      </c>
+      <c r="C284" t="s">
+        <v>23</v>
+      </c>
+      <c r="D284" t="s">
+        <v>157</v>
+      </c>
+      <c r="E284" t="s">
+        <v>35</v>
+      </c>
+      <c r="F284" t="s">
+        <v>174</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>155</v>
+      </c>
+      <c r="B285" t="s">
+        <v>158</v>
+      </c>
+      <c r="C285" t="s">
+        <v>23</v>
+      </c>
+      <c r="D285" t="s">
+        <v>52</v>
+      </c>
+      <c r="E285" t="s">
+        <v>52</v>
+      </c>
+      <c r="F285" t="s">
+        <v>185</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>155</v>
+      </c>
+      <c r="B286" t="s">
+        <v>158</v>
+      </c>
+      <c r="C286" t="s">
+        <v>18</v>
+      </c>
+      <c r="D286" t="s">
+        <v>52</v>
+      </c>
+      <c r="E286" t="s">
+        <v>52</v>
+      </c>
+      <c r="F286" t="s">
+        <v>185</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>155</v>
+      </c>
+      <c r="B287" t="s">
+        <v>158</v>
+      </c>
+      <c r="C287" t="s">
+        <v>23</v>
+      </c>
+      <c r="D287" t="s">
+        <v>54</v>
+      </c>
+      <c r="E287" t="s">
+        <v>54</v>
+      </c>
+      <c r="F287" t="s">
+        <v>187</v>
+      </c>
+      <c r="G287" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>155</v>
+      </c>
+      <c r="B288" t="s">
+        <v>158</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" t="s">
+        <v>39</v>
+      </c>
+      <c r="E288" t="s">
+        <v>39</v>
+      </c>
+      <c r="F288" t="s">
+        <v>176</v>
+      </c>
+      <c r="G288" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>155</v>
+      </c>
+      <c r="B289" t="s">
         <v>159</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>24</v>
+      </c>
+      <c r="E289" t="s">
+        <v>24</v>
+      </c>
+      <c r="F289" t="s">
+        <v>168</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>155</v>
+      </c>
+      <c r="B290" t="s">
+        <v>159</v>
+      </c>
+      <c r="C290" t="s">
+        <v>23</v>
+      </c>
+      <c r="D290" t="s">
+        <v>33</v>
+      </c>
+      <c r="E290" t="s">
+        <v>33</v>
+      </c>
+      <c r="F290" t="s">
+        <v>172</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>155</v>
+      </c>
+      <c r="B291" t="s">
+        <v>159</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" t="s">
+        <v>33</v>
+      </c>
+      <c r="E291" t="s">
+        <v>33</v>
+      </c>
+      <c r="F291" t="s">
+        <v>172</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>155</v>
+      </c>
+      <c r="B292" t="s">
+        <v>159</v>
+      </c>
+      <c r="C292" t="s">
         <v>21</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D292" t="s">
         <v>160</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E292" t="s">
         <v>39</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F292" t="s">
         <v>176</v>
       </c>
-      <c r="G282" s="2" t="s">
+      <c r="G292" s="2" t="s">
         <v>201</v>
       </c>
     </row>
